--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11808.23826425115</v>
+        <v>2349839.414585979</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11808.23826425115</v>
+        <v>2349839.414585979</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28435.18093071552</v>
+        <v>1706691.581030532</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28435.18093071552</v>
+        <v>1706691.581030532</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113747566.433083</v>
+        <v>46159649.43925392</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11393.50567488907</v>
+        <v>1230297.44640745</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20936.75494182011</v>
+        <v>2143345.80064858</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30480.00420875113</v>
+        <v>3056394.154889713</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41035.66249540811</v>
+        <v>3914585.311254517</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51581.36391835422</v>
+        <v>4773192.336319322</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61234.10782515642</v>
+        <v>5685961.456662764</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70886.85173195864</v>
+        <v>6598730.577006203</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80539.59563876086</v>
+        <v>7511499.697349643</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90862.42968299362</v>
+        <v>8350779.823411413</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101280.2940302567</v>
+        <v>9208970.979776213</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111698.1583775197</v>
+        <v>10067162.13614102</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>122116.0227247828</v>
+        <v>10925353.29250583</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132533.8870720458</v>
+        <v>11783544.44887064</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>142951.7514193089</v>
+        <v>12641735.60523545</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153379.7567873376</v>
+        <v>13499122.81698142</v>
       </c>
     </row>
   </sheetData>
